--- a/projetoIOT.xlsx
+++ b/projetoIOT.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC DEST1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE7B2BB-55D1-4A5A-8F18-ECD8BF59DD16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553CE80-6CF1-4F49-BC13-A2A8A7920332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -319,10 +332,7 @@
 </t>
   </si>
   <si>
-    <t>FINALIDADE: Componentes para Sala Maker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                    REQUISIÇÃO DE MATERIAL  - Curso: Técnico em Mecânica de Precisão  DATA  24/05/25                 </t>
+    <t>PÇ</t>
   </si>
   <si>
     <t>ENDEREÇO: BENTO BRANCO DE ANDRADE FILHO, 379 São Paulo–SP SANTO AMARO, CEP: 04757-000 
@@ -335,12 +345,51 @@
 Diluir o frete no valor da proposta.
 Os pagamentos serão realizados somente nas dezenas 10, 20 e 30.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    REQUISIÇÃO DE MATERIAL  - Curso: Técnico em Análise Desenvolvimento De Sistemas  DATA:18/09/2025      </t>
+  </si>
+  <si>
+    <t>FINALIDADE: Componentes de projeto de gerenciamento de impressoras para Sala Maker.</t>
+  </si>
+  <si>
+    <t>Display LCD 20x4 com Backlight Azul e I2C</t>
+  </si>
+  <si>
+    <t>menolana Matriz teclado matriz membrana teclado módulo teclado interruptor durável estilo telefone matriz teclado, 16 chaves 4x4</t>
+  </si>
+  <si>
+    <t>Placa Controladora ESP32 com 4 Relés WiFi para Automação Residencial - Agropus V1</t>
+  </si>
+  <si>
+    <t>Módulo WiFi Bluetooth ESP32-WROOM-32U -</t>
+  </si>
+  <si>
+    <t>Digital Temperature Sensor / Humidity Sensor AM2302 DHT22  Sensor Module For Arduino electronic DIY</t>
+  </si>
+  <si>
+    <t>Tomada Femea Com Interruptor E Portafusivel Para Impressora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PÇ </t>
+  </si>
+  <si>
+    <t>Fonte Chaveada 2a 5v Bivolt S-10-5 10w</t>
+  </si>
+  <si>
+    <t>Tela sensível ao toque capacitiva ESP32 de 3,5 polegadas ESP32-3248S035C Módulo de exibição LCD TFT amarelo BT+placa de desenvolvimento WiFi ST7796 480x320 para Arduino IDE</t>
+  </si>
+  <si>
+    <t>TELA LCD NEXTION 3.2 polegadas 400×240 ENHANCED IHM TOUCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -480,7 +529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -956,241 +1005,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="94">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,13 +1340,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1354,9 +1476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1394,9 +1516,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,26 +1551,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1481,26 +1586,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1680,56 +1768,56 @@
       <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="3.296875" customWidth="1"/>
+    <col min="4" max="4" width="31.296875" customWidth="1"/>
+    <col min="5" max="5" width="30.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.796875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="1.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" customWidth="1"/>
+    <col min="10" max="10" width="20.796875" customWidth="1"/>
+    <col min="11" max="11" width="1.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="23"/>
@@ -1737,11 +1825,11 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="23"/>
@@ -1749,11 +1837,11 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="23"/>
@@ -1761,11 +1849,11 @@
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="23"/>
@@ -1773,11 +1861,11 @@
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="23"/>
@@ -1785,11 +1873,11 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="23"/>
@@ -1797,49 +1885,49 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+    <row r="9" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1941,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1865,12 +1953,12 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1968,7 @@
       <c r="F14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="23" t="s">
         <v>11</v>
       </c>
@@ -1889,6 +1977,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
@@ -1896,16 +1994,6 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1920,13 +2008,13 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1238250</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
+                <xdr:rowOff>393700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1944,313 +2032,411 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="71.1640625" customWidth="1"/>
-    <col min="7" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="1.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.796875" customWidth="1"/>
+    <col min="6" max="6" width="71.19921875" customWidth="1"/>
+    <col min="7" max="10" width="15.796875" customWidth="1"/>
+    <col min="11" max="11" width="1.296875" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9.296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+    <row r="1" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="60"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="38"/>
+      <c r="J3" s="76"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="17">
+        <v>70</v>
+      </c>
+      <c r="H4" s="17">
+        <f>SUM(G4:G13)</f>
+        <v>1217.9000000000001</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="6"/>
+    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="17">
+        <v>60</v>
+      </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="38"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="17">
+        <v>170</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="6"/>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="17">
+        <v>190</v>
+      </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="38"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="6"/>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="17">
+        <v>10</v>
+      </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="38"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="6"/>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="17">
+        <v>20</v>
+      </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="17">
+        <v>60</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="6"/>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85">
+        <v>1</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="84">
+        <v>200</v>
+      </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="6"/>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="93">
+        <v>437.9</v>
+      </c>
+      <c r="H13" s="89"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="6"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74" t="s">
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58" t="s">
+      <c r="D20" s="74"/>
+      <c r="E20" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G17:J20"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B17:F19"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="C16:F16"/>
@@ -2265,28 +2451,7 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:J20"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2323,21 +2488,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000A881CC88496774CA4AE42B2BA6EC1D4" ma:contentTypeVersion="7" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="9cc17f22b3d49625d167e02a115336f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f1a8dbd5-05d5-46b0-92bf-d163b5aba033" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afbf2fd90efd5a8077dad5276deab70f" ns2:_="">
     <xsd:import namespace="f1a8dbd5-05d5-46b0-92bf-d163b5aba033"/>
@@ -2501,31 +2651,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD732812-37EE-4204-B129-C35B2FD53D29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A70C4BE-1AD7-4DB4-AE58-E7C863C5E091}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f1a8dbd5-05d5-46b0-92bf-d163b5aba033"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC342645-D62D-4F84-9CC3-940FAE072256}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2542,4 +2683,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A70C4BE-1AD7-4DB4-AE58-E7C863C5E091}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f1a8dbd5-05d5-46b0-92bf-d163b5aba033"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD732812-37EE-4204-B129-C35B2FD53D29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>